--- a/Excel/work/2021-12.xlsx
+++ b/Excel/work/2021-12.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,12 +32,20 @@
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>机房迁移准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wiki.intra.gomeplus.com/pages/viewpage.action?pageId=105644672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +58,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -70,14 +86,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,20 +375,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,11 +398,30 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.70208333333333339</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/work/2021-12.xlsx
+++ b/Excel/work/2021-12.xlsx
@@ -19,25 +19,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房迁移准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wiki.intra.gomeplus.com/pages/viewpage.action?pageId=105644672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房迁移准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://wiki.intra.gomeplus.com/pages/viewpage.action?pageId=105644672</t>
+    <t>耗时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,21 +379,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="62.625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,29 +402,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.70208333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.59166666666666667</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
